--- a/AAII_Financials/Quarterly/BKNIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BKNIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>BKNIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,85 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1056300</v>
+        <v>771200</v>
       </c>
       <c r="E8" s="3">
-        <v>481900</v>
+        <v>1075200</v>
       </c>
       <c r="F8" s="3">
-        <v>813800</v>
+        <v>490500</v>
       </c>
       <c r="G8" s="3">
-        <v>390200</v>
+        <v>828400</v>
       </c>
       <c r="H8" s="3">
-        <v>772000</v>
+        <v>397200</v>
       </c>
       <c r="I8" s="3">
-        <v>381500</v>
+        <v>785800</v>
       </c>
       <c r="J8" s="3">
+        <v>388300</v>
+      </c>
+      <c r="K8" s="3">
         <v>758300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>371100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +771,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +803,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +819,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +849,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +881,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +913,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="I15" s="3">
         <v>-42500</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-42200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-41700</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>-40600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +958,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>288700</v>
+        <v>290000</v>
       </c>
       <c r="E17" s="3">
-        <v>128600</v>
+        <v>293800</v>
       </c>
       <c r="F17" s="3">
-        <v>223200</v>
+        <v>130900</v>
       </c>
       <c r="G17" s="3">
-        <v>105300</v>
+        <v>227200</v>
       </c>
       <c r="H17" s="3">
-        <v>241900</v>
+        <v>107200</v>
       </c>
       <c r="I17" s="3">
-        <v>111100</v>
+        <v>246200</v>
       </c>
       <c r="J17" s="3">
+        <v>113100</v>
+      </c>
+      <c r="K17" s="3">
         <v>217600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>767600</v>
+        <v>481100</v>
       </c>
       <c r="E18" s="3">
-        <v>353400</v>
+        <v>781300</v>
       </c>
       <c r="F18" s="3">
-        <v>590600</v>
+        <v>359700</v>
       </c>
       <c r="G18" s="3">
-        <v>284800</v>
+        <v>601200</v>
       </c>
       <c r="H18" s="3">
-        <v>530100</v>
+        <v>289900</v>
       </c>
       <c r="I18" s="3">
-        <v>270400</v>
+        <v>539600</v>
       </c>
       <c r="J18" s="3">
+        <v>275300</v>
+      </c>
+      <c r="K18" s="3">
         <v>540700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>267800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,37 +1036,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-332600</v>
+        <v>-164100</v>
       </c>
       <c r="E20" s="3">
-        <v>-112500</v>
+        <v>-338600</v>
       </c>
       <c r="F20" s="3">
-        <v>-195000</v>
+        <v>-114500</v>
       </c>
       <c r="G20" s="3">
-        <v>-58100</v>
+        <v>-198500</v>
       </c>
       <c r="H20" s="3">
-        <v>-266600</v>
+        <v>-59200</v>
       </c>
       <c r="I20" s="3">
-        <v>-106200</v>
+        <v>-271300</v>
       </c>
       <c r="J20" s="3">
+        <v>-108100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-236400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,20 +1086,23 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>345900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>352000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>344800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1130,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>435000</v>
+        <v>317100</v>
       </c>
       <c r="E23" s="3">
-        <v>240900</v>
+        <v>442800</v>
       </c>
       <c r="F23" s="3">
-        <v>395600</v>
+        <v>245200</v>
       </c>
       <c r="G23" s="3">
-        <v>226700</v>
+        <v>402600</v>
       </c>
       <c r="H23" s="3">
-        <v>263600</v>
+        <v>230700</v>
       </c>
       <c r="I23" s="3">
-        <v>164200</v>
+        <v>268300</v>
       </c>
       <c r="J23" s="3">
+        <v>167100</v>
+      </c>
+      <c r="K23" s="3">
         <v>304300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>169900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>129000</v>
+        <v>118100</v>
       </c>
       <c r="E24" s="3">
-        <v>72600</v>
+        <v>131300</v>
       </c>
       <c r="F24" s="3">
-        <v>108800</v>
+        <v>73800</v>
       </c>
       <c r="G24" s="3">
-        <v>63500</v>
+        <v>110800</v>
       </c>
       <c r="H24" s="3">
-        <v>59500</v>
+        <v>64600</v>
       </c>
       <c r="I24" s="3">
-        <v>47400</v>
+        <v>60600</v>
       </c>
       <c r="J24" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K24" s="3">
         <v>87800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1226,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>306000</v>
+        <v>198900</v>
       </c>
       <c r="E26" s="3">
-        <v>168300</v>
+        <v>311400</v>
       </c>
       <c r="F26" s="3">
-        <v>286700</v>
+        <v>171300</v>
       </c>
       <c r="G26" s="3">
-        <v>163200</v>
+        <v>291900</v>
       </c>
       <c r="H26" s="3">
-        <v>204000</v>
+        <v>166100</v>
       </c>
       <c r="I26" s="3">
-        <v>116800</v>
+        <v>207700</v>
       </c>
       <c r="J26" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K26" s="3">
         <v>216400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>306000</v>
+        <v>198900</v>
       </c>
       <c r="E27" s="3">
-        <v>168300</v>
+        <v>311400</v>
       </c>
       <c r="F27" s="3">
-        <v>286700</v>
+        <v>171300</v>
       </c>
       <c r="G27" s="3">
-        <v>163200</v>
+        <v>291900</v>
       </c>
       <c r="H27" s="3">
-        <v>204000</v>
+        <v>166100</v>
       </c>
       <c r="I27" s="3">
-        <v>116800</v>
+        <v>207700</v>
       </c>
       <c r="J27" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K27" s="3">
         <v>216400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,13 +1322,16 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1289,13 +1349,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>989900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1386,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1418,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>332600</v>
+        <v>164100</v>
       </c>
       <c r="E32" s="3">
-        <v>112500</v>
+        <v>338600</v>
       </c>
       <c r="F32" s="3">
-        <v>195000</v>
+        <v>114500</v>
       </c>
       <c r="G32" s="3">
-        <v>58100</v>
+        <v>198500</v>
       </c>
       <c r="H32" s="3">
-        <v>266600</v>
+        <v>59200</v>
       </c>
       <c r="I32" s="3">
-        <v>106200</v>
+        <v>271300</v>
       </c>
       <c r="J32" s="3">
+        <v>108100</v>
+      </c>
+      <c r="K32" s="3">
         <v>236400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>306000</v>
+        <v>198900</v>
       </c>
       <c r="E33" s="3">
-        <v>168300</v>
+        <v>311400</v>
       </c>
       <c r="F33" s="3">
-        <v>286700</v>
+        <v>171300</v>
       </c>
       <c r="G33" s="3">
-        <v>163200</v>
+        <v>291900</v>
       </c>
       <c r="H33" s="3">
-        <v>204000</v>
+        <v>166100</v>
       </c>
       <c r="I33" s="3">
-        <v>116800</v>
+        <v>207700</v>
       </c>
       <c r="J33" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1206400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>156900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1514,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>306000</v>
+        <v>198900</v>
       </c>
       <c r="E35" s="3">
-        <v>168300</v>
+        <v>311400</v>
       </c>
       <c r="F35" s="3">
-        <v>286700</v>
+        <v>171300</v>
       </c>
       <c r="G35" s="3">
-        <v>163200</v>
+        <v>291900</v>
       </c>
       <c r="H35" s="3">
-        <v>204000</v>
+        <v>166100</v>
       </c>
       <c r="I35" s="3">
-        <v>116800</v>
+        <v>207700</v>
       </c>
       <c r="J35" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1206400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>156900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1599,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1613,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18102100</v>
+        <v>18243100</v>
       </c>
       <c r="E41" s="3">
-        <v>21836100</v>
+        <v>18425500</v>
       </c>
       <c r="F41" s="3">
-        <v>25690100</v>
+        <v>22226200</v>
       </c>
       <c r="G41" s="3">
-        <v>27816200</v>
+        <v>26149100</v>
       </c>
       <c r="H41" s="3">
-        <v>26217700</v>
+        <v>28313100</v>
       </c>
       <c r="I41" s="3">
-        <v>23382200</v>
+        <v>26686000</v>
       </c>
       <c r="J41" s="3">
+        <v>23799900</v>
+      </c>
+      <c r="K41" s="3">
         <v>22566900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20652800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14864600</v>
+        <v>15195800</v>
       </c>
       <c r="E42" s="3">
-        <v>16912900</v>
+        <v>15130200</v>
       </c>
       <c r="F42" s="3">
-        <v>13869000</v>
+        <v>17215000</v>
       </c>
       <c r="G42" s="3">
-        <v>13349400</v>
+        <v>14116700</v>
       </c>
       <c r="H42" s="3">
-        <v>12676700</v>
+        <v>13587900</v>
       </c>
       <c r="I42" s="3">
-        <v>12184200</v>
+        <v>12903200</v>
       </c>
       <c r="J42" s="3">
+        <v>12401900</v>
+      </c>
+      <c r="K42" s="3">
         <v>12497500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13266800</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1707,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1739,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1771,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1803,107 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>188500</v>
+        <v>195600</v>
       </c>
       <c r="E47" s="3">
-        <v>197100</v>
+        <v>191900</v>
       </c>
       <c r="F47" s="3">
-        <v>194100</v>
+        <v>200600</v>
       </c>
       <c r="G47" s="3">
-        <v>189400</v>
+        <v>197500</v>
       </c>
       <c r="H47" s="3">
-        <v>179800</v>
+        <v>192800</v>
       </c>
       <c r="I47" s="3">
-        <v>183100</v>
+        <v>183000</v>
       </c>
       <c r="J47" s="3">
+        <v>186300</v>
+      </c>
+      <c r="K47" s="3">
         <v>170300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>473800</v>
+        <v>475500</v>
       </c>
       <c r="E48" s="3">
-        <v>471700</v>
+        <v>482300</v>
       </c>
       <c r="F48" s="3">
-        <v>472300</v>
+        <v>480200</v>
       </c>
       <c r="G48" s="3">
-        <v>469400</v>
+        <v>480800</v>
       </c>
       <c r="H48" s="3">
-        <v>476600</v>
+        <v>477800</v>
       </c>
       <c r="I48" s="3">
-        <v>478600</v>
+        <v>485100</v>
       </c>
       <c r="J48" s="3">
+        <v>487100</v>
+      </c>
+      <c r="K48" s="3">
         <v>485600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>485400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>295100</v>
+        <v>298500</v>
       </c>
       <c r="E49" s="3">
-        <v>285100</v>
+        <v>300400</v>
       </c>
       <c r="F49" s="3">
-        <v>284700</v>
+        <v>290100</v>
       </c>
       <c r="G49" s="3">
-        <v>281900</v>
+        <v>289800</v>
       </c>
       <c r="H49" s="3">
-        <v>285300</v>
+        <v>286900</v>
       </c>
       <c r="I49" s="3">
-        <v>279000</v>
+        <v>290400</v>
       </c>
       <c r="J49" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K49" s="3">
         <v>280200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1931,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1963,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>558400</v>
+        <v>231900</v>
       </c>
       <c r="E52" s="3">
-        <v>87900</v>
+        <v>568400</v>
       </c>
       <c r="F52" s="3">
-        <v>367700</v>
+        <v>89400</v>
       </c>
       <c r="G52" s="3">
-        <v>104700</v>
+        <v>374300</v>
       </c>
       <c r="H52" s="3">
-        <v>402000</v>
+        <v>106600</v>
       </c>
       <c r="I52" s="3">
-        <v>124900</v>
+        <v>409200</v>
       </c>
       <c r="J52" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K52" s="3">
         <v>415100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1858000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2027,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113742400</v>
+        <v>114093000</v>
       </c>
       <c r="E54" s="3">
-        <v>116907700</v>
+        <v>115774300</v>
       </c>
       <c r="F54" s="3">
-        <v>117956100</v>
+        <v>118996100</v>
       </c>
       <c r="G54" s="3">
-        <v>117227700</v>
+        <v>120063200</v>
       </c>
       <c r="H54" s="3">
-        <v>113824000</v>
+        <v>119321800</v>
       </c>
       <c r="I54" s="3">
-        <v>108411700</v>
+        <v>115857300</v>
       </c>
       <c r="J54" s="3">
+        <v>110348400</v>
+      </c>
+      <c r="K54" s="3">
         <v>108598700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>106669300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2075,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,8 +2089,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,8 +2119,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,37 +2151,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>245400</v>
+        <v>710000</v>
       </c>
       <c r="E59" s="3">
-        <v>553500</v>
+        <v>249800</v>
       </c>
       <c r="F59" s="3">
-        <v>220100</v>
+        <v>563400</v>
       </c>
       <c r="G59" s="3">
-        <v>485900</v>
+        <v>224000</v>
       </c>
       <c r="H59" s="3">
-        <v>147100</v>
+        <v>494600</v>
       </c>
       <c r="I59" s="3">
-        <v>626300</v>
+        <v>149700</v>
       </c>
       <c r="J59" s="3">
+        <v>637400</v>
+      </c>
+      <c r="K59" s="3">
         <v>178100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2215,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6806200</v>
+        <v>7440800</v>
       </c>
       <c r="E61" s="3">
-        <v>6143700</v>
+        <v>6927800</v>
       </c>
       <c r="F61" s="3">
-        <v>7385600</v>
+        <v>6253500</v>
       </c>
       <c r="G61" s="3">
-        <v>7928100</v>
+        <v>7517600</v>
       </c>
       <c r="H61" s="3">
-        <v>8135900</v>
+        <v>8069700</v>
       </c>
       <c r="I61" s="3">
-        <v>8375800</v>
+        <v>8281200</v>
       </c>
       <c r="J61" s="3">
+        <v>8525400</v>
+      </c>
+      <c r="K61" s="3">
         <v>8574600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7982000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>460600</v>
+        <v>401700</v>
       </c>
       <c r="E62" s="3">
-        <v>396500</v>
+        <v>468800</v>
       </c>
       <c r="F62" s="3">
-        <v>456300</v>
+        <v>403600</v>
       </c>
       <c r="G62" s="3">
-        <v>414700</v>
+        <v>464500</v>
       </c>
       <c r="H62" s="3">
-        <v>566500</v>
+        <v>422100</v>
       </c>
       <c r="I62" s="3">
-        <v>463800</v>
+        <v>576600</v>
       </c>
       <c r="J62" s="3">
+        <v>472100</v>
+      </c>
+      <c r="K62" s="3">
         <v>554000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1496900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2311,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2343,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2375,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>108553000</v>
+        <v>108730900</v>
       </c>
       <c r="E66" s="3">
-        <v>111737300</v>
+        <v>110492200</v>
       </c>
       <c r="F66" s="3">
-        <v>112862500</v>
+        <v>113733300</v>
       </c>
       <c r="G66" s="3">
-        <v>112090500</v>
+        <v>114878700</v>
       </c>
       <c r="H66" s="3">
-        <v>108690400</v>
+        <v>114092800</v>
       </c>
       <c r="I66" s="3">
-        <v>103282700</v>
+        <v>110632000</v>
       </c>
       <c r="J66" s="3">
+        <v>105127800</v>
+      </c>
+      <c r="K66" s="3">
         <v>103437200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>101326400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2423,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2453,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2485,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2517,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2549,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>5029600</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4873100</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>4720600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5119400</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4960200</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4804900</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>4700800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2613,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2645,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2677,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5189500</v>
+        <v>5362100</v>
       </c>
       <c r="E76" s="3">
-        <v>5170400</v>
+        <v>5282200</v>
       </c>
       <c r="F76" s="3">
-        <v>5093600</v>
+        <v>5262800</v>
       </c>
       <c r="G76" s="3">
-        <v>5137200</v>
+        <v>5184600</v>
       </c>
       <c r="H76" s="3">
-        <v>5133600</v>
+        <v>5229000</v>
       </c>
       <c r="I76" s="3">
-        <v>5129000</v>
+        <v>5225300</v>
       </c>
       <c r="J76" s="3">
+        <v>5220600</v>
+      </c>
+      <c r="K76" s="3">
         <v>5161500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5342900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2741,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>306000</v>
+        <v>198900</v>
       </c>
       <c r="E81" s="3">
-        <v>168300</v>
+        <v>311400</v>
       </c>
       <c r="F81" s="3">
-        <v>286700</v>
+        <v>171300</v>
       </c>
       <c r="G81" s="3">
-        <v>163200</v>
+        <v>291900</v>
       </c>
       <c r="H81" s="3">
-        <v>204000</v>
+        <v>166100</v>
       </c>
       <c r="I81" s="3">
-        <v>116800</v>
+        <v>207700</v>
       </c>
       <c r="J81" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1206400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>156900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,8 +2826,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,20 +2844,23 @@
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>82300</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>83800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>40600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2888,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2920,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2952,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +2984,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,8 +3016,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2820,20 +3036,23 @@
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>7459800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>7593000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>3453400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3064,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3126,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,8 +3158,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,20 +3178,23 @@
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>-67600</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-62600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,8 +3206,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2992,19 +3225,22 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-223000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-227000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-47300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3268,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3300,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,8 +3332,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3107,20 +3352,23 @@
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>361700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>368100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>536700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3148,8 +3396,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3165,16 +3416,19 @@
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>7753800</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>7892400</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>3927500</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BKNIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BKNIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>BKNIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,91 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>771200</v>
+        <v>1726900</v>
       </c>
       <c r="E8" s="3">
-        <v>1075200</v>
+        <v>776300</v>
       </c>
       <c r="F8" s="3">
-        <v>490500</v>
+        <v>1082400</v>
       </c>
       <c r="G8" s="3">
-        <v>828400</v>
+        <v>493800</v>
       </c>
       <c r="H8" s="3">
-        <v>397200</v>
+        <v>833900</v>
       </c>
       <c r="I8" s="3">
-        <v>785800</v>
+        <v>399800</v>
       </c>
       <c r="J8" s="3">
+        <v>791100</v>
+      </c>
+      <c r="K8" s="3">
         <v>388300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>758300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>371100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,8 +780,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,8 +815,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,8 +832,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,8 +865,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,8 +900,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,40 +935,46 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-22000</v>
+        <v>-44500</v>
       </c>
       <c r="E15" s="3">
-        <v>-43300</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-43000</v>
+        <v>-22100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>-21400</v>
+        <v>-43200</v>
       </c>
       <c r="I15" s="3">
-        <v>-42500</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>-40600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -959,72 +984,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>290000</v>
+        <v>728800</v>
       </c>
       <c r="E17" s="3">
-        <v>293800</v>
+        <v>292000</v>
       </c>
       <c r="F17" s="3">
-        <v>130900</v>
+        <v>295800</v>
       </c>
       <c r="G17" s="3">
-        <v>227200</v>
+        <v>131700</v>
       </c>
       <c r="H17" s="3">
-        <v>107200</v>
+        <v>228700</v>
       </c>
       <c r="I17" s="3">
-        <v>246200</v>
+        <v>107900</v>
       </c>
       <c r="J17" s="3">
+        <v>247900</v>
+      </c>
+      <c r="K17" s="3">
         <v>113100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>217600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>481100</v>
+        <v>998000</v>
       </c>
       <c r="E18" s="3">
-        <v>781300</v>
+        <v>484400</v>
       </c>
       <c r="F18" s="3">
-        <v>359700</v>
+        <v>786600</v>
       </c>
       <c r="G18" s="3">
-        <v>601200</v>
+        <v>362100</v>
       </c>
       <c r="H18" s="3">
-        <v>289900</v>
+        <v>605200</v>
       </c>
       <c r="I18" s="3">
-        <v>539600</v>
+        <v>291900</v>
       </c>
       <c r="J18" s="3">
+        <v>543200</v>
+      </c>
+      <c r="K18" s="3">
         <v>275300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>540700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>267800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1037,45 +1069,49 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-164100</v>
+        <v>-320300</v>
       </c>
       <c r="E20" s="3">
-        <v>-338600</v>
+        <v>-165200</v>
       </c>
       <c r="F20" s="3">
-        <v>-114500</v>
+        <v>-340800</v>
       </c>
       <c r="G20" s="3">
-        <v>-198500</v>
+        <v>-115200</v>
       </c>
       <c r="H20" s="3">
-        <v>-59200</v>
+        <v>-199800</v>
       </c>
       <c r="I20" s="3">
-        <v>-271300</v>
+        <v>-59600</v>
       </c>
       <c r="J20" s="3">
+        <v>-273100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-108100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-236400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>722200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1089,20 +1125,23 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>352000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>354400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>344800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1133,72 +1172,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>317100</v>
+        <v>677800</v>
       </c>
       <c r="E23" s="3">
-        <v>442800</v>
+        <v>319200</v>
       </c>
       <c r="F23" s="3">
-        <v>245200</v>
+        <v>445700</v>
       </c>
       <c r="G23" s="3">
-        <v>402600</v>
+        <v>246800</v>
       </c>
       <c r="H23" s="3">
-        <v>230700</v>
+        <v>405300</v>
       </c>
       <c r="I23" s="3">
-        <v>268300</v>
+        <v>232300</v>
       </c>
       <c r="J23" s="3">
+        <v>270100</v>
+      </c>
+      <c r="K23" s="3">
         <v>167100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>304300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>169900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118100</v>
+        <v>224700</v>
       </c>
       <c r="E24" s="3">
-        <v>131300</v>
+        <v>118900</v>
       </c>
       <c r="F24" s="3">
-        <v>73800</v>
+        <v>132200</v>
       </c>
       <c r="G24" s="3">
-        <v>110800</v>
+        <v>74300</v>
       </c>
       <c r="H24" s="3">
-        <v>64600</v>
+        <v>111500</v>
       </c>
       <c r="I24" s="3">
-        <v>60600</v>
+        <v>65000</v>
       </c>
       <c r="J24" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K24" s="3">
         <v>48200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>87800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1229,72 +1277,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>198900</v>
+        <v>453100</v>
       </c>
       <c r="E26" s="3">
-        <v>311400</v>
+        <v>200200</v>
       </c>
       <c r="F26" s="3">
-        <v>171300</v>
+        <v>313500</v>
       </c>
       <c r="G26" s="3">
-        <v>291900</v>
+        <v>172500</v>
       </c>
       <c r="H26" s="3">
-        <v>166100</v>
+        <v>293800</v>
       </c>
       <c r="I26" s="3">
-        <v>207700</v>
+        <v>167200</v>
       </c>
       <c r="J26" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K26" s="3">
         <v>118900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>216400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>198900</v>
+        <v>453100</v>
       </c>
       <c r="E27" s="3">
-        <v>311400</v>
+        <v>200200</v>
       </c>
       <c r="F27" s="3">
-        <v>171300</v>
+        <v>313500</v>
       </c>
       <c r="G27" s="3">
-        <v>291900</v>
+        <v>172500</v>
       </c>
       <c r="H27" s="3">
-        <v>166100</v>
+        <v>293800</v>
       </c>
       <c r="I27" s="3">
-        <v>207700</v>
+        <v>167200</v>
       </c>
       <c r="J27" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K27" s="3">
         <v>118900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>216400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,16 +1382,19 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1352,13 +1412,16 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>989900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1389,8 +1452,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1421,72 +1487,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>164100</v>
+        <v>320300</v>
       </c>
       <c r="E32" s="3">
-        <v>338600</v>
+        <v>165200</v>
       </c>
       <c r="F32" s="3">
-        <v>114500</v>
+        <v>340800</v>
       </c>
       <c r="G32" s="3">
-        <v>198500</v>
+        <v>115200</v>
       </c>
       <c r="H32" s="3">
-        <v>59200</v>
+        <v>199800</v>
       </c>
       <c r="I32" s="3">
-        <v>271300</v>
+        <v>59600</v>
       </c>
       <c r="J32" s="3">
+        <v>273100</v>
+      </c>
+      <c r="K32" s="3">
         <v>108100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>236400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>198900</v>
+        <v>453100</v>
       </c>
       <c r="E33" s="3">
-        <v>311400</v>
+        <v>200200</v>
       </c>
       <c r="F33" s="3">
-        <v>171300</v>
+        <v>313500</v>
       </c>
       <c r="G33" s="3">
-        <v>291900</v>
+        <v>172500</v>
       </c>
       <c r="H33" s="3">
-        <v>166100</v>
+        <v>293800</v>
       </c>
       <c r="I33" s="3">
-        <v>207700</v>
+        <v>167200</v>
       </c>
       <c r="J33" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K33" s="3">
         <v>118900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1206400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>156900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1517,77 +1592,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>198900</v>
+        <v>453100</v>
       </c>
       <c r="E35" s="3">
-        <v>311400</v>
+        <v>200200</v>
       </c>
       <c r="F35" s="3">
-        <v>171300</v>
+        <v>313500</v>
       </c>
       <c r="G35" s="3">
-        <v>291900</v>
+        <v>172500</v>
       </c>
       <c r="H35" s="3">
-        <v>166100</v>
+        <v>293800</v>
       </c>
       <c r="I35" s="3">
-        <v>207700</v>
+        <v>167200</v>
       </c>
       <c r="J35" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K35" s="3">
         <v>118900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1206400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>156900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1600,8 +1684,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1614,72 +1699,79 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18243100</v>
+        <v>21026800</v>
       </c>
       <c r="E41" s="3">
-        <v>18425500</v>
+        <v>18365100</v>
       </c>
       <c r="F41" s="3">
-        <v>22226200</v>
+        <v>18548700</v>
       </c>
       <c r="G41" s="3">
-        <v>26149100</v>
+        <v>22374800</v>
       </c>
       <c r="H41" s="3">
-        <v>28313100</v>
+        <v>26323900</v>
       </c>
       <c r="I41" s="3">
-        <v>26686000</v>
+        <v>28502400</v>
       </c>
       <c r="J41" s="3">
+        <v>26864400</v>
+      </c>
+      <c r="K41" s="3">
         <v>23799900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22566900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20652800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15195800</v>
+        <v>15404100</v>
       </c>
       <c r="E42" s="3">
-        <v>15130200</v>
+        <v>15297300</v>
       </c>
       <c r="F42" s="3">
-        <v>17215000</v>
+        <v>15231300</v>
       </c>
       <c r="G42" s="3">
-        <v>14116700</v>
+        <v>17330100</v>
       </c>
       <c r="H42" s="3">
-        <v>13587900</v>
+        <v>14211100</v>
       </c>
       <c r="I42" s="3">
-        <v>12903200</v>
+        <v>13678800</v>
       </c>
       <c r="J42" s="3">
+        <v>12989400</v>
+      </c>
+      <c r="K42" s="3">
         <v>12401900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12497500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13266800</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1710,8 +1802,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1742,8 +1837,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1774,8 +1872,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1806,104 +1907,116 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>195600</v>
+        <v>183400</v>
       </c>
       <c r="E47" s="3">
-        <v>191900</v>
+        <v>196900</v>
       </c>
       <c r="F47" s="3">
-        <v>200600</v>
+        <v>193200</v>
       </c>
       <c r="G47" s="3">
-        <v>197500</v>
+        <v>202000</v>
       </c>
       <c r="H47" s="3">
-        <v>192800</v>
+        <v>198900</v>
       </c>
       <c r="I47" s="3">
-        <v>183000</v>
+        <v>194100</v>
       </c>
       <c r="J47" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K47" s="3">
         <v>186300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>170300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>475500</v>
+        <v>477900</v>
       </c>
       <c r="E48" s="3">
-        <v>482300</v>
+        <v>478700</v>
       </c>
       <c r="F48" s="3">
-        <v>480200</v>
+        <v>485500</v>
       </c>
       <c r="G48" s="3">
-        <v>480800</v>
+        <v>483400</v>
       </c>
       <c r="H48" s="3">
-        <v>477800</v>
+        <v>484000</v>
       </c>
       <c r="I48" s="3">
-        <v>485100</v>
+        <v>481000</v>
       </c>
       <c r="J48" s="3">
+        <v>488300</v>
+      </c>
+      <c r="K48" s="3">
         <v>487100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>485600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>485400</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>298500</v>
+        <v>305200</v>
       </c>
       <c r="E49" s="3">
-        <v>300400</v>
+        <v>300500</v>
       </c>
       <c r="F49" s="3">
-        <v>290100</v>
+        <v>302400</v>
       </c>
       <c r="G49" s="3">
-        <v>289800</v>
+        <v>292100</v>
       </c>
       <c r="H49" s="3">
-        <v>286900</v>
+        <v>291800</v>
       </c>
       <c r="I49" s="3">
-        <v>290400</v>
+        <v>288800</v>
       </c>
       <c r="J49" s="3">
+        <v>292400</v>
+      </c>
+      <c r="K49" s="3">
         <v>284000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>280200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1934,8 +2047,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1966,40 +2082,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>231900</v>
+        <v>502600</v>
       </c>
       <c r="E52" s="3">
-        <v>568400</v>
+        <v>233500</v>
       </c>
       <c r="F52" s="3">
-        <v>89400</v>
+        <v>572200</v>
       </c>
       <c r="G52" s="3">
-        <v>374300</v>
+        <v>90000</v>
       </c>
       <c r="H52" s="3">
-        <v>106600</v>
+        <v>376800</v>
       </c>
       <c r="I52" s="3">
-        <v>409200</v>
+        <v>107300</v>
       </c>
       <c r="J52" s="3">
+        <v>411900</v>
+      </c>
+      <c r="K52" s="3">
         <v>127100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>415100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1858000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2030,40 +2152,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>114093000</v>
+        <v>119358700</v>
       </c>
       <c r="E54" s="3">
-        <v>115774300</v>
+        <v>114855800</v>
       </c>
       <c r="F54" s="3">
-        <v>118996100</v>
+        <v>116548400</v>
       </c>
       <c r="G54" s="3">
-        <v>120063200</v>
+        <v>119791700</v>
       </c>
       <c r="H54" s="3">
-        <v>119321800</v>
+        <v>120866000</v>
       </c>
       <c r="I54" s="3">
-        <v>115857300</v>
+        <v>120119600</v>
       </c>
       <c r="J54" s="3">
+        <v>116631900</v>
+      </c>
+      <c r="K54" s="3">
         <v>110348400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108598700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>106669300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2076,8 +2204,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2090,8 +2219,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2122,8 +2252,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2154,40 +2287,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>710000</v>
+        <v>441200</v>
       </c>
       <c r="E59" s="3">
-        <v>249800</v>
+        <v>714800</v>
       </c>
       <c r="F59" s="3">
-        <v>563400</v>
+        <v>251400</v>
       </c>
       <c r="G59" s="3">
-        <v>224000</v>
+        <v>567100</v>
       </c>
       <c r="H59" s="3">
-        <v>494600</v>
+        <v>225500</v>
       </c>
       <c r="I59" s="3">
-        <v>149700</v>
+        <v>497900</v>
       </c>
       <c r="J59" s="3">
+        <v>150700</v>
+      </c>
+      <c r="K59" s="3">
         <v>637400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>178100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2218,72 +2357,81 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7440800</v>
+        <v>8303100</v>
       </c>
       <c r="E61" s="3">
-        <v>6927800</v>
+        <v>7490500</v>
       </c>
       <c r="F61" s="3">
-        <v>6253500</v>
+        <v>6974100</v>
       </c>
       <c r="G61" s="3">
-        <v>7517600</v>
+        <v>6295300</v>
       </c>
       <c r="H61" s="3">
-        <v>8069700</v>
+        <v>7567800</v>
       </c>
       <c r="I61" s="3">
-        <v>8281200</v>
+        <v>8123700</v>
       </c>
       <c r="J61" s="3">
+        <v>8336600</v>
+      </c>
+      <c r="K61" s="3">
         <v>8525400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8574600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7982000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>401700</v>
+        <v>449400</v>
       </c>
       <c r="E62" s="3">
-        <v>468800</v>
+        <v>404400</v>
       </c>
       <c r="F62" s="3">
-        <v>403600</v>
+        <v>472000</v>
       </c>
       <c r="G62" s="3">
-        <v>464500</v>
+        <v>406300</v>
       </c>
       <c r="H62" s="3">
-        <v>422100</v>
+        <v>467600</v>
       </c>
       <c r="I62" s="3">
-        <v>576600</v>
+        <v>424900</v>
       </c>
       <c r="J62" s="3">
+        <v>580400</v>
+      </c>
+      <c r="K62" s="3">
         <v>472100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>554000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1496900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2314,8 +2462,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2346,8 +2497,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2378,40 +2532,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>108730900</v>
+        <v>113832500</v>
       </c>
       <c r="E66" s="3">
-        <v>110492200</v>
+        <v>109457900</v>
       </c>
       <c r="F66" s="3">
-        <v>113733300</v>
+        <v>111230900</v>
       </c>
       <c r="G66" s="3">
-        <v>114878700</v>
+        <v>114493700</v>
       </c>
       <c r="H66" s="3">
-        <v>114092800</v>
+        <v>115646700</v>
       </c>
       <c r="I66" s="3">
-        <v>110632000</v>
+        <v>114855600</v>
       </c>
       <c r="J66" s="3">
+        <v>111371700</v>
+      </c>
+      <c r="K66" s="3">
         <v>105127800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>103437200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>101326400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2424,8 +2584,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2456,8 +2617,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2488,8 +2652,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2520,8 +2687,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2552,40 +2722,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>5119400</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>4960200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>4804900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>5416300</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>5153600</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4993300</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4837100</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>4700800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2616,8 +2792,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2648,8 +2827,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2680,40 +2862,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5362100</v>
+        <v>5526200</v>
       </c>
       <c r="E76" s="3">
-        <v>5282200</v>
+        <v>5398000</v>
       </c>
       <c r="F76" s="3">
-        <v>5262800</v>
+        <v>5317500</v>
       </c>
       <c r="G76" s="3">
-        <v>5184600</v>
+        <v>5298000</v>
       </c>
       <c r="H76" s="3">
-        <v>5229000</v>
+        <v>5219200</v>
       </c>
       <c r="I76" s="3">
-        <v>5225300</v>
+        <v>5263900</v>
       </c>
       <c r="J76" s="3">
+        <v>5260200</v>
+      </c>
+      <c r="K76" s="3">
         <v>5220600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5161500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5342900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2744,77 +2932,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>198900</v>
+        <v>453100</v>
       </c>
       <c r="E81" s="3">
-        <v>311400</v>
+        <v>200200</v>
       </c>
       <c r="F81" s="3">
-        <v>171300</v>
+        <v>313500</v>
       </c>
       <c r="G81" s="3">
-        <v>291900</v>
+        <v>172500</v>
       </c>
       <c r="H81" s="3">
-        <v>166100</v>
+        <v>293800</v>
       </c>
       <c r="I81" s="3">
-        <v>207700</v>
+        <v>167200</v>
       </c>
       <c r="J81" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K81" s="3">
         <v>118900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1206400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>156900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2827,13 +3024,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>44500</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
@@ -2847,20 +3045,23 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
-        <v>83800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>84300</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>40600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2891,8 +3092,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2923,8 +3127,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2955,8 +3162,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2987,8 +3197,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3019,13 +3232,16 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>-1401500</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
@@ -3039,20 +3255,23 @@
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
-        <v>7593000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>7643800</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>3453400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3065,20 +3284,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-72300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37800</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -3092,13 +3312,16 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-8400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3129,8 +3352,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3161,13 +3387,16 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>43100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
@@ -3181,20 +3410,23 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>-68800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-69300</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-62600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3207,13 +3439,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-176600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3228,19 +3461,22 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-227000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-228500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-47300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3271,8 +3507,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3303,8 +3542,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3335,13 +3577,16 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>148700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
@@ -3355,20 +3600,23 @@
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
-        <v>368100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>370600</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>536700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3399,13 +3647,16 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-1209800</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
@@ -3419,16 +3670,19 @@
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
-        <v>7892400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>7945100</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>3927500</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BKNIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BKNIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>BKNIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,97 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1726900</v>
+        <v>1093000</v>
       </c>
       <c r="E8" s="3">
-        <v>776300</v>
+        <v>1728300</v>
       </c>
       <c r="F8" s="3">
-        <v>1082400</v>
+        <v>777000</v>
       </c>
       <c r="G8" s="3">
-        <v>493800</v>
+        <v>1083300</v>
       </c>
       <c r="H8" s="3">
-        <v>833900</v>
+        <v>494200</v>
       </c>
       <c r="I8" s="3">
-        <v>399800</v>
+        <v>834600</v>
       </c>
       <c r="J8" s="3">
+        <v>400100</v>
+      </c>
+      <c r="K8" s="3">
         <v>791100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>388300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>758300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>371100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -783,8 +789,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,8 +827,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -833,8 +845,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,8 +881,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,8 +919,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,43 +957,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E15" s="3">
         <v>-44500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-22100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-43600</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-43200</v>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="J15" s="3">
         <v>-21500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-42800</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>-40600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -985,78 +1010,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>728800</v>
+        <v>559300</v>
       </c>
       <c r="E17" s="3">
-        <v>292000</v>
+        <v>729400</v>
       </c>
       <c r="F17" s="3">
-        <v>295800</v>
+        <v>292200</v>
       </c>
       <c r="G17" s="3">
-        <v>131700</v>
+        <v>296000</v>
       </c>
       <c r="H17" s="3">
-        <v>228700</v>
+        <v>131800</v>
       </c>
       <c r="I17" s="3">
-        <v>107900</v>
+        <v>228900</v>
       </c>
       <c r="J17" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K17" s="3">
         <v>247900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>113100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>217600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>103300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>998000</v>
+        <v>533700</v>
       </c>
       <c r="E18" s="3">
-        <v>484400</v>
+        <v>998900</v>
       </c>
       <c r="F18" s="3">
-        <v>786600</v>
+        <v>484800</v>
       </c>
       <c r="G18" s="3">
-        <v>362100</v>
+        <v>787200</v>
       </c>
       <c r="H18" s="3">
-        <v>605200</v>
+        <v>362400</v>
       </c>
       <c r="I18" s="3">
-        <v>291900</v>
+        <v>605700</v>
       </c>
       <c r="J18" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K18" s="3">
         <v>543200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>275300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>540700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>267800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1070,57 +1102,61 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-320300</v>
+        <v>-123200</v>
       </c>
       <c r="E20" s="3">
-        <v>-165200</v>
+        <v>-320500</v>
       </c>
       <c r="F20" s="3">
-        <v>-340800</v>
+        <v>-165300</v>
       </c>
       <c r="G20" s="3">
-        <v>-115200</v>
+        <v>-341100</v>
       </c>
       <c r="H20" s="3">
-        <v>-199800</v>
+        <v>-115300</v>
       </c>
       <c r="I20" s="3">
+        <v>-200000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-59600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-273100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-108100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-236400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-97900</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>722200</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>635900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3">
+        <v>533000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -1128,20 +1164,23 @@
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>354400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>344800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1175,78 +1214,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>677800</v>
+        <v>410600</v>
       </c>
       <c r="E23" s="3">
-        <v>319200</v>
+        <v>678300</v>
       </c>
       <c r="F23" s="3">
-        <v>445700</v>
+        <v>319400</v>
       </c>
       <c r="G23" s="3">
-        <v>246800</v>
+        <v>446100</v>
       </c>
       <c r="H23" s="3">
-        <v>405300</v>
+        <v>247000</v>
       </c>
       <c r="I23" s="3">
-        <v>232300</v>
+        <v>405700</v>
       </c>
       <c r="J23" s="3">
+        <v>232500</v>
+      </c>
+      <c r="K23" s="3">
         <v>270100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>167100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>304300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>169900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>224700</v>
+        <v>121100</v>
       </c>
       <c r="E24" s="3">
-        <v>118900</v>
+        <v>224900</v>
       </c>
       <c r="F24" s="3">
-        <v>132200</v>
+        <v>119000</v>
       </c>
       <c r="G24" s="3">
-        <v>74300</v>
+        <v>132300</v>
       </c>
       <c r="H24" s="3">
-        <v>111500</v>
+        <v>74400</v>
       </c>
       <c r="I24" s="3">
-        <v>65000</v>
+        <v>111600</v>
       </c>
       <c r="J24" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K24" s="3">
         <v>61000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>87800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,78 +1328,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>453100</v>
+        <v>289500</v>
       </c>
       <c r="E26" s="3">
-        <v>200200</v>
+        <v>453400</v>
       </c>
       <c r="F26" s="3">
-        <v>313500</v>
+        <v>200400</v>
       </c>
       <c r="G26" s="3">
-        <v>172500</v>
+        <v>313800</v>
       </c>
       <c r="H26" s="3">
-        <v>293800</v>
+        <v>172600</v>
       </c>
       <c r="I26" s="3">
-        <v>167200</v>
+        <v>294000</v>
       </c>
       <c r="J26" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K26" s="3">
         <v>209100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>118900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>216400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>453100</v>
+        <v>289500</v>
       </c>
       <c r="E27" s="3">
-        <v>200200</v>
+        <v>453400</v>
       </c>
       <c r="F27" s="3">
-        <v>313500</v>
+        <v>200400</v>
       </c>
       <c r="G27" s="3">
-        <v>172500</v>
+        <v>313800</v>
       </c>
       <c r="H27" s="3">
-        <v>293800</v>
+        <v>172600</v>
       </c>
       <c r="I27" s="3">
-        <v>167200</v>
+        <v>294000</v>
       </c>
       <c r="J27" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K27" s="3">
         <v>209100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>118900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>216400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>123100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1385,19 +1442,22 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1415,13 +1475,16 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>989900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,8 +1518,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1490,78 +1556,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>320300</v>
+        <v>123200</v>
       </c>
       <c r="E32" s="3">
-        <v>165200</v>
+        <v>320500</v>
       </c>
       <c r="F32" s="3">
-        <v>340800</v>
+        <v>165300</v>
       </c>
       <c r="G32" s="3">
-        <v>115200</v>
+        <v>341100</v>
       </c>
       <c r="H32" s="3">
-        <v>199800</v>
+        <v>115300</v>
       </c>
       <c r="I32" s="3">
+        <v>200000</v>
+      </c>
+      <c r="J32" s="3">
         <v>59600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>273100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>108100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>236400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>453100</v>
+        <v>289500</v>
       </c>
       <c r="E33" s="3">
-        <v>200200</v>
+        <v>453400</v>
       </c>
       <c r="F33" s="3">
-        <v>313500</v>
+        <v>200400</v>
       </c>
       <c r="G33" s="3">
-        <v>172500</v>
+        <v>313800</v>
       </c>
       <c r="H33" s="3">
-        <v>293800</v>
+        <v>172600</v>
       </c>
       <c r="I33" s="3">
-        <v>167200</v>
+        <v>294000</v>
       </c>
       <c r="J33" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K33" s="3">
         <v>209100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>118900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1206400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>156900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1595,83 +1670,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>453100</v>
+        <v>289500</v>
       </c>
       <c r="E35" s="3">
-        <v>200200</v>
+        <v>453400</v>
       </c>
       <c r="F35" s="3">
-        <v>313500</v>
+        <v>200400</v>
       </c>
       <c r="G35" s="3">
-        <v>172500</v>
+        <v>313800</v>
       </c>
       <c r="H35" s="3">
-        <v>293800</v>
+        <v>172600</v>
       </c>
       <c r="I35" s="3">
-        <v>167200</v>
+        <v>294000</v>
       </c>
       <c r="J35" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K35" s="3">
         <v>209100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>118900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1206400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>156900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1685,8 +1769,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1700,78 +1785,85 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21026800</v>
+        <v>19335200</v>
       </c>
       <c r="E41" s="3">
-        <v>18365100</v>
+        <v>21044300</v>
       </c>
       <c r="F41" s="3">
-        <v>18548700</v>
+        <v>18380300</v>
       </c>
       <c r="G41" s="3">
-        <v>22374800</v>
+        <v>18564100</v>
       </c>
       <c r="H41" s="3">
-        <v>26323900</v>
+        <v>22393400</v>
       </c>
       <c r="I41" s="3">
-        <v>28502400</v>
+        <v>26345700</v>
       </c>
       <c r="J41" s="3">
+        <v>28526100</v>
+      </c>
+      <c r="K41" s="3">
         <v>26864400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23799900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22566900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20652800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15404100</v>
+        <v>15928200</v>
       </c>
       <c r="E42" s="3">
-        <v>15297300</v>
+        <v>15416900</v>
       </c>
       <c r="F42" s="3">
-        <v>15231300</v>
+        <v>15310000</v>
       </c>
       <c r="G42" s="3">
-        <v>17330100</v>
+        <v>15244000</v>
       </c>
       <c r="H42" s="3">
-        <v>14211100</v>
+        <v>17344500</v>
       </c>
       <c r="I42" s="3">
-        <v>13678800</v>
+        <v>14222900</v>
       </c>
       <c r="J42" s="3">
+        <v>13690100</v>
+      </c>
+      <c r="K42" s="3">
         <v>12989400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12401900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12497500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13266800</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1805,8 +1897,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1840,8 +1935,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1875,8 +1973,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1910,113 +2011,125 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>183400</v>
+        <v>204000</v>
       </c>
       <c r="E47" s="3">
-        <v>196900</v>
+        <v>183500</v>
       </c>
       <c r="F47" s="3">
-        <v>193200</v>
+        <v>197100</v>
       </c>
       <c r="G47" s="3">
-        <v>202000</v>
+        <v>193400</v>
       </c>
       <c r="H47" s="3">
-        <v>198900</v>
+        <v>202100</v>
       </c>
       <c r="I47" s="3">
-        <v>194100</v>
+        <v>199000</v>
       </c>
       <c r="J47" s="3">
+        <v>194300</v>
+      </c>
+      <c r="K47" s="3">
         <v>184300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>186300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>170300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>120900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>477900</v>
+        <v>473600</v>
       </c>
       <c r="E48" s="3">
-        <v>478700</v>
+        <v>478300</v>
       </c>
       <c r="F48" s="3">
-        <v>485500</v>
+        <v>479100</v>
       </c>
       <c r="G48" s="3">
-        <v>483400</v>
+        <v>485900</v>
       </c>
       <c r="H48" s="3">
-        <v>484000</v>
+        <v>483800</v>
       </c>
       <c r="I48" s="3">
-        <v>481000</v>
+        <v>484400</v>
       </c>
       <c r="J48" s="3">
+        <v>481400</v>
+      </c>
+      <c r="K48" s="3">
         <v>488300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>487100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>485600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>485400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>305200</v>
+        <v>308000</v>
       </c>
       <c r="E49" s="3">
-        <v>300500</v>
+        <v>305500</v>
       </c>
       <c r="F49" s="3">
-        <v>302400</v>
+        <v>300700</v>
       </c>
       <c r="G49" s="3">
-        <v>292100</v>
+        <v>302600</v>
       </c>
       <c r="H49" s="3">
-        <v>291800</v>
+        <v>292300</v>
       </c>
       <c r="I49" s="3">
-        <v>288800</v>
+        <v>292000</v>
       </c>
       <c r="J49" s="3">
+        <v>289100</v>
+      </c>
+      <c r="K49" s="3">
         <v>292400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>284000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>280200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>275700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2050,8 +2163,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2085,43 +2201,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>502600</v>
+        <v>208900</v>
       </c>
       <c r="E52" s="3">
-        <v>233500</v>
+        <v>503000</v>
       </c>
       <c r="F52" s="3">
-        <v>572200</v>
+        <v>233700</v>
       </c>
       <c r="G52" s="3">
-        <v>90000</v>
+        <v>572700</v>
       </c>
       <c r="H52" s="3">
-        <v>376800</v>
+        <v>90100</v>
       </c>
       <c r="I52" s="3">
-        <v>107300</v>
+        <v>377100</v>
       </c>
       <c r="J52" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K52" s="3">
         <v>411900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>415100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1858000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2155,43 +2277,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>119358700</v>
+        <v>117573500</v>
       </c>
       <c r="E54" s="3">
-        <v>114855800</v>
+        <v>119457800</v>
       </c>
       <c r="F54" s="3">
-        <v>116548400</v>
+        <v>114951200</v>
       </c>
       <c r="G54" s="3">
-        <v>119791700</v>
+        <v>116645100</v>
       </c>
       <c r="H54" s="3">
-        <v>120866000</v>
+        <v>119891100</v>
       </c>
       <c r="I54" s="3">
-        <v>120119600</v>
+        <v>120966300</v>
       </c>
       <c r="J54" s="3">
+        <v>120219300</v>
+      </c>
+      <c r="K54" s="3">
         <v>116631900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110348400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108598700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>106669300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2205,8 +2333,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2220,8 +2349,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2255,8 +2385,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2290,43 +2423,49 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>441200</v>
+        <v>710900</v>
       </c>
       <c r="E59" s="3">
-        <v>714800</v>
+        <v>441600</v>
       </c>
       <c r="F59" s="3">
-        <v>251400</v>
+        <v>715400</v>
       </c>
       <c r="G59" s="3">
-        <v>567100</v>
+        <v>251600</v>
       </c>
       <c r="H59" s="3">
-        <v>225500</v>
+        <v>567600</v>
       </c>
       <c r="I59" s="3">
-        <v>497900</v>
+        <v>225700</v>
       </c>
       <c r="J59" s="3">
+        <v>498300</v>
+      </c>
+      <c r="K59" s="3">
         <v>150700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>637400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>178100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>458800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2360,78 +2499,87 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8303100</v>
+        <v>9165000</v>
       </c>
       <c r="E61" s="3">
-        <v>7490500</v>
+        <v>8310000</v>
       </c>
       <c r="F61" s="3">
-        <v>6974100</v>
+        <v>7496800</v>
       </c>
       <c r="G61" s="3">
-        <v>6295300</v>
+        <v>6979900</v>
       </c>
       <c r="H61" s="3">
-        <v>7567800</v>
+        <v>6300500</v>
       </c>
       <c r="I61" s="3">
-        <v>8123700</v>
+        <v>7574100</v>
       </c>
       <c r="J61" s="3">
+        <v>8130400</v>
+      </c>
+      <c r="K61" s="3">
         <v>8336600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8525400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8574600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7982000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>449400</v>
+        <v>386700</v>
       </c>
       <c r="E62" s="3">
-        <v>404400</v>
+        <v>449800</v>
       </c>
       <c r="F62" s="3">
-        <v>472000</v>
+        <v>404700</v>
       </c>
       <c r="G62" s="3">
-        <v>406300</v>
+        <v>472400</v>
       </c>
       <c r="H62" s="3">
-        <v>467600</v>
+        <v>406700</v>
       </c>
       <c r="I62" s="3">
-        <v>424900</v>
+        <v>468000</v>
       </c>
       <c r="J62" s="3">
+        <v>425300</v>
+      </c>
+      <c r="K62" s="3">
         <v>580400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>472100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>554000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1496900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2465,8 +2613,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2500,8 +2651,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2535,43 +2689,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>113832500</v>
+        <v>111831000</v>
       </c>
       <c r="E66" s="3">
-        <v>109457900</v>
+        <v>113927000</v>
       </c>
       <c r="F66" s="3">
-        <v>111230900</v>
+        <v>109548700</v>
       </c>
       <c r="G66" s="3">
-        <v>114493700</v>
+        <v>111323200</v>
       </c>
       <c r="H66" s="3">
-        <v>115646700</v>
+        <v>114588800</v>
       </c>
       <c r="I66" s="3">
-        <v>114855600</v>
+        <v>115742700</v>
       </c>
       <c r="J66" s="3">
+        <v>114951000</v>
+      </c>
+      <c r="K66" s="3">
         <v>111371700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105127800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>103437200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>101326400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2585,8 +2745,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2620,8 +2781,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2655,8 +2819,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2690,8 +2857,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2725,43 +2895,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5416300</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>5153600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>4993300</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+        <v>5694300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5420800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>5157900</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>4997500</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>4837100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>4700800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2795,8 +2971,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2830,8 +3009,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2865,43 +3047,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5526200</v>
+        <v>5742400</v>
       </c>
       <c r="E76" s="3">
-        <v>5398000</v>
+        <v>5530800</v>
       </c>
       <c r="F76" s="3">
-        <v>5317500</v>
+        <v>5402500</v>
       </c>
       <c r="G76" s="3">
-        <v>5298000</v>
+        <v>5321900</v>
       </c>
       <c r="H76" s="3">
-        <v>5219200</v>
+        <v>5302400</v>
       </c>
       <c r="I76" s="3">
-        <v>5263900</v>
+        <v>5223600</v>
       </c>
       <c r="J76" s="3">
+        <v>5268300</v>
+      </c>
+      <c r="K76" s="3">
         <v>5260200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5220600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5161500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5342900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2935,83 +3123,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>453100</v>
+        <v>289500</v>
       </c>
       <c r="E81" s="3">
-        <v>200200</v>
+        <v>453400</v>
       </c>
       <c r="F81" s="3">
-        <v>313500</v>
+        <v>200400</v>
       </c>
       <c r="G81" s="3">
-        <v>172500</v>
+        <v>313800</v>
       </c>
       <c r="H81" s="3">
-        <v>293800</v>
+        <v>172600</v>
       </c>
       <c r="I81" s="3">
-        <v>167200</v>
+        <v>294000</v>
       </c>
       <c r="J81" s="3">
+        <v>167400</v>
+      </c>
+      <c r="K81" s="3">
         <v>209100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>118900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1206400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>156900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3025,22 +3222,23 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>44500</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-42400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>86900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3048,20 +3246,23 @@
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>84300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>40600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3095,8 +3296,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3130,8 +3334,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3165,8 +3372,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3200,8 +3410,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3235,22 +3448,25 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-1401500</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7315200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
+      <c r="G89" s="3">
+        <v>-8717900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
@@ -3258,20 +3474,23 @@
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>7643800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>3453400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3285,8 +3504,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3315,13 +3535,16 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-8400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3355,8 +3578,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3390,22 +3616,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>43100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>297100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>-253900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
@@ -3413,20 +3642,23 @@
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-69300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-62600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3440,22 +3672,23 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-176600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>97200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-273900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3464,19 +3697,22 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-228500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-47300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3510,8 +3746,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3545,8 +3784,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3580,22 +3822,25 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>148700</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>965600</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
+      <c r="G100" s="3">
+        <v>-816800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
@@ -3603,20 +3848,23 @@
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>370600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>536700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3650,22 +3898,25 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1209800</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8578000</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
+      <c r="G102" s="3">
+        <v>-9788700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
@@ -3673,16 +3924,19 @@
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>7945100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>3927500</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
